--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_005.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -244,9 +244,6 @@
     <t>From Bang Hua Suea To Thai Central Phra Pradaeng</t>
   </si>
   <si>
-    <t>stop at ST_014</t>
-  </si>
-  <si>
     <t>ST_014 to ST_013</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>release_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>B_075,B_089,B_031</t>
   </si>
   <si>
@@ -295,7 +289,7 @@
     <t>B_089,B_031</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A23D6EA0&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A25FAC90&gt;], 'exit_datetime': datetime.datetime(2025, 1, 25, 11, 15)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B74247BD70&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B742178E30&gt;], 'exit_datetime': datetime.datetime(2025, 1, 25, 11, 15)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -696,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -835,13 +829,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
         <v>103</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -876,13 +870,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N3">
         <v>1200</v>
@@ -903,19 +897,19 @@
         <v>45682.47569444445</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s">
         <v>103</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -950,13 +944,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -977,16 +971,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V4" t="s">
+        <v>101</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" t="s">
         <v>103</v>
-      </c>
-      <c r="W4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1021,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1048,16 +1042,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" t="s">
         <v>103</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1092,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N6">
         <v>1200</v>
@@ -1119,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V6" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" t="s">
         <v>103</v>
-      </c>
-      <c r="W6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1163,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1190,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" t="s">
         <v>103</v>
-      </c>
-      <c r="W7" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1234,13 +1228,13 @@
         <v>9.20655737704918</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1261,16 +1255,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V8" t="s">
+        <v>101</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
         <v>103</v>
-      </c>
-      <c r="W8" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1305,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>6750</v>
@@ -1332,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V9" t="s">
+        <v>101</v>
+      </c>
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" t="s">
         <v>103</v>
-      </c>
-      <c r="W9" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1376,13 +1370,13 @@
         <v>270</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N10">
         <v>3150</v>
@@ -1403,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V10" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" t="s">
         <v>103</v>
-      </c>
-      <c r="W10" t="s">
-        <v>26</v>
-      </c>
-      <c r="X10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1447,13 +1441,13 @@
         <v>270</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>2500</v>
@@ -1474,16 +1468,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" t="s">
         <v>103</v>
-      </c>
-      <c r="W11" t="s">
-        <v>26</v>
-      </c>
-      <c r="X11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1518,13 +1512,13 @@
         <v>240</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N12">
         <v>1100</v>
@@ -1545,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V12" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" t="s">
         <v>103</v>
-      </c>
-      <c r="W12" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1589,13 +1583,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>6750</v>
@@ -1616,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V13" t="s">
+        <v>101</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" t="s">
         <v>103</v>
-      </c>
-      <c r="W13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1660,13 +1654,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>6750</v>
@@ -1687,16 +1681,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V14" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" t="s">
         <v>103</v>
-      </c>
-      <c r="W14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1731,13 +1725,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>6750</v>
@@ -1758,16 +1752,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" t="s">
         <v>103</v>
-      </c>
-      <c r="W15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1802,13 +1796,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N16">
         <v>6750</v>
@@ -1829,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V16" t="s">
+        <v>101</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" t="s">
         <v>103</v>
-      </c>
-      <c r="W16" t="s">
-        <v>26</v>
-      </c>
-      <c r="X16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1873,13 +1867,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N17">
         <v>6750</v>
@@ -1900,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V17" t="s">
+        <v>101</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17" t="s">
         <v>103</v>
-      </c>
-      <c r="W17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1944,13 +1938,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N18">
         <v>6750</v>
@@ -1971,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V18" t="s">
+        <v>101</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" t="s">
         <v>103</v>
-      </c>
-      <c r="W18" t="s">
-        <v>26</v>
-      </c>
-      <c r="X18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2015,13 +2009,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N19">
         <v>6750</v>
@@ -2042,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V19" t="s">
+        <v>101</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" t="s">
         <v>103</v>
-      </c>
-      <c r="W19" t="s">
-        <v>26</v>
-      </c>
-      <c r="X19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2086,13 +2080,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N20">
         <v>6750</v>
@@ -2113,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V20" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
         <v>103</v>
-      </c>
-      <c r="W20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2157,13 +2151,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N21">
         <v>6750</v>
@@ -2184,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
+        <v>99</v>
+      </c>
+      <c r="V21" t="s">
         <v>101</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21" t="s">
         <v>103</v>
-      </c>
-      <c r="W21" t="s">
-        <v>26</v>
-      </c>
-      <c r="X21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2228,13 +2222,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N22">
         <v>6750</v>
@@ -2258,13 +2252,13 @@
         <v>29</v>
       </c>
       <c r="V22" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" t="s">
         <v>103</v>
-      </c>
-      <c r="W22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2299,13 +2293,13 @@
         <v>6.99344262295082</v>
       </c>
       <c r="K23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N23">
         <v>6750</v>
@@ -2326,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V23" t="s">
+        <v>101</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" t="s">
         <v>103</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2370,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2397,13 +2391,13 @@
         <v>28</v>
       </c>
       <c r="V24" t="s">
+        <v>101</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
         <v>103</v>
-      </c>
-      <c r="W24" t="s">
-        <v>26</v>
-      </c>
-      <c r="X24" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2438,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N25">
         <v>4250</v>
@@ -2468,13 +2462,13 @@
         <v>28</v>
       </c>
       <c r="V25" t="s">
+        <v>101</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" t="s">
         <v>103</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2509,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N26">
         <v>1100</v>
@@ -2539,13 +2533,13 @@
         <v>28</v>
       </c>
       <c r="V26" t="s">
+        <v>101</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
         <v>103</v>
-      </c>
-      <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2580,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2607,13 +2601,13 @@
         <v>28</v>
       </c>
       <c r="V27" t="s">
+        <v>101</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
         <v>103</v>
-      </c>
-      <c r="W27" t="s">
-        <v>26</v>
-      </c>
-      <c r="X27" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2648,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -2675,13 +2669,13 @@
         <v>28</v>
       </c>
       <c r="V28" t="s">
+        <v>102</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
         <v>104</v>
-      </c>
-      <c r="W28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X28" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2716,13 +2710,13 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N29">
         <v>6750</v>
@@ -2746,13 +2740,13 @@
         <v>28</v>
       </c>
       <c r="V29" t="s">
+        <v>102</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" t="s">
         <v>104</v>
-      </c>
-      <c r="W29" t="s">
-        <v>26</v>
-      </c>
-      <c r="X29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2787,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N30">
         <v>2500</v>
@@ -2817,13 +2811,13 @@
         <v>28</v>
       </c>
       <c r="V30" t="s">
+        <v>102</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30" t="s">
         <v>104</v>
-      </c>
-      <c r="W30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X30" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2858,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N31">
         <v>5650</v>
@@ -2888,13 +2882,13 @@
         <v>28</v>
       </c>
       <c r="V31" t="s">
+        <v>102</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31" t="s">
         <v>104</v>
-      </c>
-      <c r="W31" t="s">
-        <v>26</v>
-      </c>
-      <c r="X31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2929,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N32">
         <v>6750</v>
@@ -2959,13 +2953,13 @@
         <v>28</v>
       </c>
       <c r="V32" t="s">
+        <v>102</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32" t="s">
         <v>104</v>
-      </c>
-      <c r="W32" t="s">
-        <v>26</v>
-      </c>
-      <c r="X32" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3000,13 +2994,13 @@
         <v>7.507894736842106</v>
       </c>
       <c r="K33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N33">
         <v>6750</v>
@@ -3030,13 +3024,13 @@
         <v>28</v>
       </c>
       <c r="V33" t="s">
+        <v>102</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" t="s">
         <v>104</v>
-      </c>
-      <c r="W33" t="s">
-        <v>26</v>
-      </c>
-      <c r="X33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3056,28 +3050,28 @@
         <v>45683.5</v>
       </c>
       <c r="F34" s="2">
-        <v>45683.5</v>
+        <v>45683.50554971375</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.1331931300385559</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>7.507894736842106</v>
       </c>
       <c r="K34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N34">
         <v>6750</v>
@@ -3101,13 +3095,13 @@
         <v>28</v>
       </c>
       <c r="V34" t="s">
+        <v>102</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34" t="s">
         <v>104</v>
-      </c>
-      <c r="W34" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3121,13 +3115,13 @@
         <v>77</v>
       </c>
       <c r="D35" s="2">
-        <v>45683.5</v>
+        <v>45683.50554971375</v>
       </c>
       <c r="E35" s="2">
-        <v>45683.5</v>
+        <v>45683.50554971375</v>
       </c>
       <c r="F35" s="2">
-        <v>45683.50554971375</v>
+        <v>45683.5110994275</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3139,16 +3133,16 @@
         <v>0.1331931300385559</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>7.507894736842106</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N35">
         <v>6750</v>
@@ -3169,48 +3163,48 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="V35" t="s">
+        <v>102</v>
+      </c>
+      <c r="W35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35" t="s">
         <v>104</v>
-      </c>
-      <c r="W35" t="s">
-        <v>26</v>
-      </c>
-      <c r="X35" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="2">
-        <v>45683.50554971375</v>
+        <v>45683.5110994275</v>
       </c>
       <c r="E36" s="2">
-        <v>45683.50554971375</v>
+        <v>45683.5110994275</v>
       </c>
       <c r="F36" s="2">
-        <v>45683.5110994275</v>
+        <v>45683.7298494275</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0.1331931300385559</v>
+        <v>5.25</v>
       </c>
       <c r="J36">
-        <v>7.507894736842106</v>
+        <v>600</v>
       </c>
       <c r="K36" t="s">
         <v>83</v>
@@ -3219,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N36">
-        <v>6750</v>
+        <v>3150</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3240,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" t="s">
         <v>102</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36" t="s">
         <v>104</v>
-      </c>
-      <c r="W36" t="s">
-        <v>26</v>
-      </c>
-      <c r="X36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3263,13 +3257,13 @@
         <v>79</v>
       </c>
       <c r="D37" s="2">
-        <v>45683.5110994275</v>
+        <v>45683.7298494275</v>
       </c>
       <c r="E37" s="2">
-        <v>45683.5110994275</v>
+        <v>45683.7298494275</v>
       </c>
       <c r="F37" s="2">
-        <v>45683.7298494275</v>
+        <v>45683.90346053861</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3278,22 +3272,22 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>5.25</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J37">
         <v>600</v>
       </c>
       <c r="K37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N37">
-        <v>3150</v>
+        <v>2500</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3314,13 +3308,13 @@
         <v>29</v>
       </c>
       <c r="V37" t="s">
+        <v>102</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37" t="s">
         <v>104</v>
-      </c>
-      <c r="W37" t="s">
-        <v>26</v>
-      </c>
-      <c r="X37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3334,13 +3328,13 @@
         <v>80</v>
       </c>
       <c r="D38" s="2">
-        <v>45683.7298494275</v>
+        <v>45683.90346053861</v>
       </c>
       <c r="E38" s="2">
-        <v>45683.7298494275</v>
+        <v>45683.90346053861</v>
       </c>
       <c r="F38" s="2">
-        <v>45683.90346053861</v>
+        <v>45683.9798494275</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3349,22 +3343,22 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4.166666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="J38">
         <v>600</v>
       </c>
       <c r="K38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N38">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -3385,84 +3379,13 @@
         <v>29</v>
       </c>
       <c r="V38" t="s">
+        <v>102</v>
+      </c>
+      <c r="W38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38" t="s">
         <v>104</v>
-      </c>
-      <c r="W38" t="s">
-        <v>26</v>
-      </c>
-      <c r="X38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
-      <c r="A39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45683.90346053861</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45683.90346053861</v>
-      </c>
-      <c r="F39" s="2">
-        <v>45683.9798494275</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="J39">
-        <v>600</v>
-      </c>
-      <c r="K39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39">
-        <v>1100</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="U39" t="s">
-        <v>29</v>
-      </c>
-      <c r="V39" t="s">
-        <v>104</v>
-      </c>
-      <c r="W39" t="s">
-        <v>26</v>
-      </c>
-      <c r="X39" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
